--- a/tmee/validation/validation_rules.xlsx
+++ b/tmee/validation/validation_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beto\OneDrive\UNICEF\TransMonEE\data-etl\tmee\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{AA5BFD42-E259-4EC6-9D97-4231E348D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEE7D7EA-A160-4A72-9826-44A502DBFFB5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{AA5BFD42-E259-4EC6-9D97-4231E348D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64183539-2027-4C0E-A875-E02C31753F36}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{94D69724-E89C-40A6-AA5E-C46142B6A58D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{94D69724-E89C-40A6-AA5E-C46142B6A58D}"/>
   </bookViews>
   <sheets>
     <sheet name="validation_rules" sheetId="1" r:id="rId1"/>
@@ -143,15 +143,9 @@
     <t>Sum by reasons for leaving not equal to the total</t>
   </si>
   <si>
-    <t>121≠ SUM (145:150)</t>
-  </si>
-  <si>
     <t>Sum by category of offence not equal to the total</t>
   </si>
   <si>
-    <t>654≠ SUM (678:683)</t>
-  </si>
-  <si>
     <t>Sum by type of school not equal to the total</t>
   </si>
   <si>
@@ -499,7 +493,1943 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">17≠SUM (22:39) </t>
+      <t xml:space="preserve">Child Protection: Total number of children </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal alternative care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by reason for leaving</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is run for all variable for which the disaggregation by reasons for leaving is requested (formal residential care, formal family-based care including each type of formal family-based care). The test checks if the sum of the detail reasons for leaving is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more reasons for leaving are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used should be mentioned). Remind if there are no cases a zero should be reported (treat as real zero). Pay attention if the figure of the total is revised this can affect the other disaggregation for the same variable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: All variable "access to justice" - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by category of offence</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is run for all variable for which the disaggregation by category of offence is requested. The test checks if the sum of the detail category of offence is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more category of offence are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>Education: Number of children with disabilities in education</t>
+  </si>
+  <si>
+    <t>The test checks if the sum of the detail type of school (ordinary and special) for children with disability in education is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of school is missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The test checks if the sum of the detail ISCED level for children with disability in education is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more category of ISCED level are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in formal residential care, at the end of the year" is equal or higher than "Total number of children in formal residential care, at the end of the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>40 ≥ 17, 42 ≥ 19, 43 ≥ 20, 45 ≥ 22, 62 ≥ 39</t>
+  </si>
+  <si>
+    <t>The children with disabilities in formal residential care including detail disaggregation, must be less than the total children in formal residential care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children in formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children in residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t>Child Protection: Total number of young people with disabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities in formal residential care, at the end of the year" is equal or higher than "Total number of young people in formal residential care, at the end of the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
+    </r>
+  </si>
+  <si>
+    <t>The young people with disabilities in formal residential care, must be less than the total young people in formal residential care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people in formal residential care are young people with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered formal residential care, during the year" is equal or higher than "Total number of children who entered formal residential care, during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>98 ≥ 68, 100 ≥ 70, 101 ≥ 71, 103 ≥ 73, 120 ≥ 90</t>
+  </si>
+  <si>
+    <t>The children with disabilities who entered formal residential care including detail disaggregation, must be less than the total children who entered formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who entered formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who entered residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left formal residential care, during the year" is equal or higher than "Total number of children who left formal residential care, during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>151 ≥ 121, 153 ≥ 123, 154 ≥ 124, 156 ≥ 126, 173 ≥ 143</t>
+  </si>
+  <si>
+    <t>The children with disabilities who left formal residential care including detail disaggregation, must be less than the total children who left formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who left formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who left residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of young people with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities who left formal residential care, during the year" is equal or higher than "Total number of young people who left formal residential care, during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
+    </r>
+  </si>
+  <si>
+    <t>The young people with disabilities who left formal residential care, must be less than the total young people who left formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people who left formal residential care are young people with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <t>Child Protection: All variables (alternative care) for which stock and flows (entrants and exits) data are collected</t>
+  </si>
+  <si>
+    <t>The test is run for all variables related to alternative care for which stock and flow data are collected. The test checks if the stock and flow data are equal. The test is failed if the data are equal (stock equal to entrants and/or stock equal to exits and/or entrants equal to exits).</t>
+  </si>
+  <si>
+    <t>17=68, 40=98, 17=191, 40=151, 68=191, 98=151, 63=174, 180=333, 204=357, 228=381, 280=180+204+228, 252=310, 405=180+204+228, 252=435, 180=463, 204=495, 228=527, 275=458, 280=405, 333=463, 357=495, 381=527, 310=458</t>
+  </si>
+  <si>
+    <r>
+      <t>Child Protection: Total number of children</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by reason for placement</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">By assumption, the number of children who entered formal residential care from a formal family based care (transferred from) should be equal to the number of children who left formal family based care and are placed (enter/transferred to) to formal residential care. Following this assumption, the same figure should be reported in both items. Any difference (as for instance different data source) should be specified in “metadata/note”. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal residential care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by reason for leaving</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">By assumption, the number of children who left formal residential care and placed in formal family-based care (enter/transferred to) should be equal to the number of children who enter formal family based care (transferred from) from formal residential care. Following this assumption, the same figure should be reported in both items. Any difference (as for instance different data source) should be specified in “metadata/note”. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Category "other"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for disaggregation by reason for placement, by reason of leaving and by category of offence</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is run for all variables for which a disaggregation which include the category "other" is collected. The test is failed when the category "other" of all relevant disaggregation is higher than 50% of the total. </t>
+  </si>
+  <si>
+    <t>category other &gt;50% of total, 97&gt;50% of 68, 150&gt;50% of 121, 309&gt;50% of 280, 434&gt;50% of 405, 494&gt;50% of 463, 526&gt;50% of 495, 558&gt;50% of 527, 683&gt;50% of 654, 713&gt;50% of 684, 743&gt;50% of 714, 773&gt;50% of 744, 853&gt;50% of 835, 872&gt;50% of 854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The category “other" should include those not classified elsewhere and theoretically the reported figure should represent a small part of the total. The category “other" should not refer to the difference between the total and the sum of the other categories if the figures of the other categories are not available or partial. Please provide any information on "metadata/note" if necessary. Remind the category "other" should be specified by the country in "metadata/note". </t>
+  </si>
+  <si>
+    <r>
+      <t>Child Protection: Total number of children with disabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the individual type of formal family-based care (foster, kindship, other forms), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) in the individual type of formal family-based care, at the end of the year" is equal or higher than "Total number of children in the individual type of formal family-based care, at the end of the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>181 ≥ 180, 205 ≥ 204, 229 ≥ 228</t>
+  </si>
+  <si>
+    <t>The children with disabilities in the individual type of formal family-based care (foster, kindship, other forms), must be less than the total children in the individual type of formal family-based care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children in the individual type of formal family-based care are children with disabilities. However the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <t>Child Protection: Total number of young people with disabilities in all formal family-based care, at the end of the year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities in all formal family-based care, at the end of the year" is equal or higher than "Total number of young people in all formal family-based care, at the end of the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
+    </r>
+  </si>
+  <si>
+    <t>The young people with disabilities in all formal family-based care, must be less than the total young people in all formal family-based care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people in formal family-based care are young people with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in all formal family-based care, at the end of the year" is not equal to the sum  of "Total number of children with disabilities (of which with disabilities) in each type of formal family-based care (foster, kindship and other forms of family based care), at the end of the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure(s) are =&gt;0 and are not flag as partial for each type of family-based care.</t>
+    </r>
+  </si>
+  <si>
+    <t>The total number of children with disabilities in all formal family-based care at the end of the year must be equal to the sum of children with disabilities in each type of formal family-based care (foster, kindship and other forms of family based care), at the end of the year. The error must be corrected. Please provide any information on "metadata/note" if necessary.</t>
+  </si>
+  <si>
+    <t>The children with disabilities in all formal family-based care including detail disaggregation, must be less than the total children in all formal family-based care (never be bigger), et the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children in all formal family-based care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children in formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children who entered all formal family-based care, during the year" is equal or higher than the sum of "Total number of children who entered each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for all variables (each type of formal family-based care and for the total formal family-based care).</t>
+    </r>
+  </si>
+  <si>
+    <t>280 ≥ 333+357+381, 282 ≥ 336+360+384, 283 ≥ 337+361+385, 285 ≥ 339+363+387, 302 ≥ 356+380+404</t>
+  </si>
+  <si>
+    <t>The total number of children who entered the all formal family-based care including detail disaggregation, must be less than the sum of children who entered each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as new entrant at total level.  While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new entrants in kindship care in the reference year while is not counted as entrants at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be  provided in "metadata/note". Equal figures mean that there are no children transferred between type of family-based care during the year. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered all formal family-based care, during the year" is equal or higher than the sum  of "Total number of children with disabilities (of which with disabilities) who entered in each type of formal family-based care (foster, kindship and other forms of family based care), during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure(s) are =&gt;0 for each type of family-based care (children with disabilities).</t>
+    </r>
+  </si>
+  <si>
+    <t>The total number of children with disabilities who entered formal family-based care must be less than the sum of children with disabilities who entered each type of formal family-based care (foster, kindship and other forms of family based care), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as new entrant at total level.  While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new entrant in kindship care in the reference year while is not counted as entrant at total level of family-based care. The error must be corrected (including any flag if necessary) or explanations must be  provided in "metadata/note". Equal figures mean that there are no children with disabilities transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the individual type of formal family-based care - foster, kindship, other forms, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) who entered the individual type of formal family-based care (foster, kindship, other forms), during the year" is equal or higher than "Total number of children who entered the individual type of formal family-based care (foster, kindship, other forms), during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>334 ≥ 333, 358 ≥ 357, 382 ≥ 381</t>
+  </si>
+  <si>
+    <t>The children with disabilities who entered the individual type of formal family-based care (foster, kindship, other forms), must be less than the total children who entered the individual type of formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who entered the individual type of formal family-based care are children with disabilities. However the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered all formal family-based care, during the year" is equal or higher than "Total number of children who entered all formal family-based care, during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>310 ≥ 280, 312 ≥ 282, 313 ≥ 283, 315 ≥ 285, 332 ≥ 302</t>
+  </si>
+  <si>
+    <t>The children with disabilities who entered all formal family-based care including detail disaggregation, must be less than the total children who entered all formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who entered all formal family-based care are children with disabilities. Equal values can be correct for the disaggregation by age (all children who enter formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children who left all formal family-based care, during the year" is equal or higher than the sum of "Total number of children who left each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for all variables (for each type of formal family-based care and for the total formal family-based care).</t>
+    </r>
+  </si>
+  <si>
+    <t>405 ≥ 463+495+527, 407 ≥ 466+498+530, 408 ≥ 467+499+531, 410 ≥ 469+501+533, 427 ≥ 486+518+550</t>
+  </si>
+  <si>
+    <t>The total number of children who left all formal family-based care (including disaggregation) must be less than the sum of children who left each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as left from family-based care, as the children have not left the system during the year in question. While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new left of foster care in the reference year while is not counted as left at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that there are no children transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left all formal family-based care, during the year" is equal or higher than the sum of "Total number of children with disabilities (of which with disabilities) who left each type of formal family-based care (foster, kindship and other forms of family based care), during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure(s) are =&gt;0 for each type of family-based care (children with disabilities).</t>
+    </r>
+  </si>
+  <si>
+    <t>The total number of children with disabilities who left all formal family-based care must be less than the sum of children with disabilities who left each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as left from family-based care, as the children have not left the system during the year in question. While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new left of foster care in the reference year while is not counted as left at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that there are no children with disabilities transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of young people with disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities who left all formal family-based care, during the year" is equal or higher than "Total number of young people who left all formal family-based care, during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
+    </r>
+  </si>
+  <si>
+    <t>The young people with disabilities who left all formal family-based care, must be less than the total young people who left all formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people who left all formal family-based care are young people with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the individual type of formal family-based care - foster, kindship, other forms, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) who left the individual type of formal family-based care, during the year" is equal or higher than "Total number of children who left the individual type of formal family-based care, during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>464 ≥ 463, 496 ≥ 495, 528 ≥ 527</t>
+  </si>
+  <si>
+    <t>The children with disabilities who left the individual type of formal family-based care, must be less than the total children who left the individual type of formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who left the individual type of formal family-based care are children with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left all formal family-based care, during the year" is equal or higher than "Total number of children who left all formal family-based care, during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>The children with disabilities who left all formal family-based care including detail disaggregation, must be less than the total children who left all formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who left all formal family-based care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who left formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">during the year - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by reason for leaving</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the figure of the sum by reason for the total children who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all formal family-based care is different than the sum by reason for children who left each type of family-based care (excluding those transferred between type of family-based care). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of each reason is =&gt;0 for all variables and are not partial for each type of formal family-based care.</t>
+    </r>
+  </si>
+  <si>
+    <t>By assumption, the sum by reason of total children who left all formal family-based care must be equal to the sum of reason for all type of family-based care (foster, kindship and other forms) excluding the transfers to other type of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the figure of each corresponding reason for leaving  is different between "Total number of children who left all formal family-based care, during the yea" and the sum of "Total number of children who left each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is carried out for the same "reason for leaving" (the test is not run for the reason "placed in other type of family-based care"). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 and not flag as partial.</t>
+    </r>
+  </si>
+  <si>
+    <t>429≠488+520+552, 430≠490+522+554, 431≠491+523+555, 432≠492+524+556, 433≠493+525+557, 434≠494+526+558</t>
+  </si>
+  <si>
+    <t>The figures of each reason for leaving must be equal between total number of children who left all formal family-based care and the sum of children who left each type of formal family-based care for the same reason. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities formally adopted - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Domestic -during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities formally adopted (domestic), during the year" is equal or higher than "Total number of children formally adopted (domestic), during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>583 ≥ 560, 585 ≥ 562, 586 ≥ 563, 588 ≥ 565, 605 ≥ 582</t>
+  </si>
+  <si>
+    <t>The children with disabilities formally adopted (domestic) during the year including detail disaggregation, must be less than the total children formally adopted (domestic), during the year (never be bigger). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures can be correct if all children formally adopted are all with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities formally adopted - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intercountry - during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities formally adopted (intercountry), during the year" is equal or higher than "Total number of children formally adopted (intercountry), during the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the checked item is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>629 ≥ 606, 631 ≥ 608, 632 ≥ 609, 634 ≥ 611, 651 ≥ 628</t>
+  </si>
+  <si>
+    <t>The children with disabilities formally adopted (intercountry) during the year including detail disaggregation, must be less than the total children formally adopted (intercountry), during the year (never be bigger). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figure can be correct if all children formally adopted are all with disabilities. However the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children formally adopted - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children who left all alternative care (residential care + family-based care), during the year" because adopted is different than "Total number of children formally adopted (domestic + intercountry), during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note the test is run only if all figures are =&gt;0. </t>
+    </r>
+  </si>
+  <si>
+    <t>147+431≠560+606</t>
+  </si>
+  <si>
+    <t>By assumption, all children who left formal residential care and family-based care (all types) because adopted must be equal to the total number of children formally adopted (domestic + intercountry) during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of child victims of crime aged 0-17 registered by the police, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the "Total number of child victims of crime aged 0-17 registered by the police, during the year" is equal or less than "Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year". The test is also carried out for disaggregation by sex and category of offence (by age). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>By assumption, the " Total number of child victims of crime aged 0-17 registered by the police, during the year" should be higher than the  " Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year" (never less). However, the total number of child victims of crime whose cases were tried during the reference year may include child victims of crime who were registered by the police in years prior to the reference year. That can affect the result of the test mainly that of the disaggregation by age. However, the data should be checked and confirmed. Equal values can be correct if all cases of crime against children registered by the police during the reference year are all tried in court during the same reference year. However, the data should be checked and confirmed since this case is generally not expected. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of child victims of crime aged 0-17 whose cases were tried in court, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the "Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year" is equal or less than "Total number of child victims of crime aged 0-17 whose cases resulted in a final conviction, during the year". The test is also carried out for disaggregation by sex and category of offence (by age). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>By assumption, the " Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year " should be higher than the  " Total number of child victims of crime aged 0-17 whose cases resulted in a final conviction, during the year". However the total number of child victims of crime whose cases resulted in a final criminal conviction during the reference year may include cases in which the trial started a year or more years ago before it resulted in a criminal conviction during the reference year. This can affect the data reported. This can affect the result of the test mainly that of the disaggregation by age. However, the data should be checked and confirmed. Equal values can be correct if all cases tried in court during the reference year are all resulted in a final conviction during the same reference year. However, the data should be checked and confirmed since this case is generally not expected. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Detention </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <t>775=799, 787=811</t>
+  </si>
+  <si>
+    <r>
+      <t>Child Protection: Total number of children sentenced to custodial sentences,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the "Total number of children sentenced to custodial sentences, during the year" is higher than "Total number of children detained (pre-trial + post-trial), during the year ". The test is also carried out for disaggregation by sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>The "Total number of children sentenced to custodial sentences, during the year" should be equal or less than Total number of children detained (pre-trial + post-trial), during the year ". However the Total number of children sentenced to custodial sentences during the reference year may include children who entered detention in years prior to the reference year. This can affect the result of the test.  However, the data should be checked and confirmed. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when the "Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year" is equal or higher than "Total number of children aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year must be less than the total number of children aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year. Equal values mean that all children who brought or on whose behalf a complaint was brought by an adult are children with disabilities. However, the data should be checked and confirmed since that case seems an exception. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">during the year - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by type of complaint</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is failed when the sum of type of complaint is not equal to the total (&lt; or &gt; of total). If one or more type of complaint are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>Child Protection: Violence against children with disabilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who experience violence, during the year" is equal or higher than "Total number of children who experience violence, during the year". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t>904 ≥ 903, 937 ≥ 936, 970 ≥ 969</t>
+  </si>
+  <si>
+    <t>The children with disabilities who experience violence, must be less than the total children who experience violence (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who experience violence are children with disabilities. However, the data should be checked and confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Violence against children - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by category of violence</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is failed when the sum of category of violence is not equal to the total (&lt; or &gt; of total). If one or more category of violence are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>903≠ SUM (928:930), 936≠ SUM (961:963), 969≠ SUM (994:996)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child Protection: Violence against children - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by relation with perpetrator</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is failed when the sum by relation with perpetrator is not equal to the total (&lt; or &gt; of total). If one or more detail are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>903≠ SUM (932:935), 936≠ SUM (965:968), 969≠ SUM (998:1001)</t>
+  </si>
+  <si>
+    <t>Social Protection: All variable for which a disaggregation by type of scheme is collected</t>
+  </si>
+  <si>
+    <t>The test is run for all variable for which the disaggregation by type of schemes (contributory non-contributory schemes) is requested (Total social protection expenditure, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). The test checks if the sum by type of social scheme (contributory + non-contributory) is equal to the total of the variable. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of scheme is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>1011≠ 1013+1014, 1029≠ 1031+1032, 1033≠ 1035+1036, 1037≠ 1039+1040, 1041≠ 1043+1044, 1045≠ 1047+1048, 1050≠ 1052+1053</t>
+  </si>
+  <si>
+    <t>The sum of expenditure by type of schemes (contributory and non-contributory) should be equal to the total expenditure (this is valid also of the detail cash benefits of family/children function). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used should be mentioned). Remind, the total expenditure including each disaggregation, should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Social protection expenditure by type of social benefits</t>
+  </si>
+  <si>
+    <t>The test checks if the sum by type of social benefits (cash + kind) is equal to the total of the social benefits expenditure. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of social benefit is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The sum of benefits in cash and in kind must be equal to the total expenditure. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind, the total expenditure including each disaggregation, should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Social protection expenditure by social protection functions</t>
+  </si>
+  <si>
+    <t>The test checks if the sum by functions is equal to the total social protection benefits expenditure. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of the function is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The sum of the expenditure of the all functions must be equal to the total expenditure. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind, the total expenditure and by detail functions should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Social protection means-tested benefits</t>
+  </si>
+  <si>
+    <t>The test is run for all variable for which the disaggregation by means-tested is requested (Total social protection expenditure, total cash benefits, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). The test is failed when the means-tested social benefits expenditure are equal or higher than the total social protection benefits expenditure (Total social protection expenditure, total cash benefits, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). If the means-tested social benefits is not available and/or flag as partial "pa" and the value is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>1012 ≥ 1011, 1016 ≥ 1015, 1030 ≥ 1029, 1034 ≥ 1033, 1038 ≥ 1037, 1042 ≥ 1041, 1046 ≥ 1045, 1051 ≥ 1050</t>
+  </si>
+  <si>
+    <t>The expenditure of means tested benefits must be less than he total expenditure (not be bigger). This is valid also for the detail cash benefits of family/children function. Equal figure means that the total refers only to means-tested benefits (there are no non means-tested benefits). This can be correct mainly for detail family/children cash benefits. However, the data should be checked and confirmed. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Family/children social benefits</t>
+  </si>
+  <si>
+    <t>The test checks if the sum of total family/children social cash benefits (Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits) and those in kind (child day care, accommodation, home help, other benefits in kind) is equal to the total family/children function. The test is failed when the sum is different to the total (&lt; or &gt; of total). However, if one detail family/children social benefit is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Income support</t>
+  </si>
+  <si>
+    <t>The test is failed when the income support benefit is higher than the total social exclusion function. However, if one of each variable is not available the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The income support expenditure is by definition part of the social exclusion function, so they can never be bigger. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>Social Protection: Benefit recipients of family support</t>
+  </si>
+  <si>
+    <t>The test is failed when the sum of beneficiaries/recipients (children/families) of detail type of monthly family allowances (means-tested family allowances, single parent family allowances, other child allowances) is equal or less than the total. However, if one detail type of allowance is missing (not available) and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used). The test is run separately for children and for families.</t>
+  </si>
+  <si>
+    <t>SUM (1066:1068)≤1065, SUM (1071:1073)≤1070</t>
+  </si>
+  <si>
+    <t>Total number of children/families receiving monthly family allowances are defined as recipients of one or more of type of allowances falling within three categories (means-tested monthly family allowances, specific allowance for single-parent family other child allowances). In general, the number of allowances received by children/families differs from the number of children/families as a child/family might receive more than one allowance. Double counting is to be avoided between the different categories of family allowances. Accordingly, the total number of children/families receiving monthly family allowances should be less than the sum. Equal values imply that the recipients receive only one type of allowance. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (as the data refer to the number of allowances instead children or families recipient of the allowance - no double counting avoided or existed). Remind if there are no cases for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>1070≥1065, 1071≥1066, 1072≥1067, 1073≥1068, 1074≥1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family should be intended here as a household (including individual/single parent) with one or more dependent children. Generally, a monthly family/child allowance is provided to a family with one or more dependent children. By consequent the number of families receiving a family/child allowance should be less than the number of children. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note") Remind if there are no cases for a specific item, a zero should be reported (treat as real zero). </t>
+  </si>
+  <si>
+    <t>Social Protection: Benefit recipients of pensions</t>
+  </si>
+  <si>
+    <t>The test is failed when the sum of beneficiaries/recipients of detail type/category of pension (old age, disability, survivors, early retirement veteran merit and other) is equal or less than the total. However, if one detail type of recipient of pension is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>Pension recipients (beneficiaries) are defined as recipients of one or more of type of pensions falling within five pension categories (old age pension, disability pension, survivors' pension early retirement pension and veteran, merit and other pensions). In general, the number of pensions received by pensioners differs from the number of pensioners as many pensioners might receive more than one pension. Double counting is to be avoided between the different categories of pensions. Accordingly, the total number of pension recipients should be equal or less than the sum of the five categories. Equal values imply that the recipients receive only one type of pension. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (as the data refer to the number of pensions instead pensioners - no doble counting avoided or existed). Remind if there are no cases for a specific item, a zero should be reported (treat as real zero).</t>
+  </si>
+  <si>
+    <t>The number of children receiving pension for disability must be less than the total number of disability pensioners. The error must be corrected, or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <t>The number of children receiving orphans’ pensions must be less than the total number of survivors’ pensioners. The error must be corrected or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Health/disability: disabled persons </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end of the year</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is failed when the number of children registered with disabilities (0-17 years) at the end of the year is equal or higher than total number of registered as persons with disabilities (at the end of the year). The test is also run for Number of girls (0-17 years) registered as persons with disabilities (at the end of the year).</t>
+  </si>
+  <si>
+    <t>1202≥1201, 1204≥1203</t>
+  </si>
+  <si>
+    <t>The number of children registered with disabilities at the end of the year must be less than total number of registered as persons with disabilities (at the end of the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Health/disability: disabled persons </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during the year</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is failed when the number of children registered with disabilities (0-17 years) during the year is equal or higher than total number of registered as persons with disabilities during the year. The test is also run for Number of girls (0-17 years) registered as persons with disabilities (during the year).</t>
+  </si>
+  <si>
+    <t>1206≥1205, 1208≥1207</t>
+  </si>
+  <si>
+    <t>The number of children registered with disabilities during the year must be less than total number of registered as persons with disabilities (during the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <t>Health/disability: female with disabilities</t>
+  </si>
+  <si>
+    <t>1203≥1201, 1207≥1205</t>
+  </si>
+  <si>
+    <t>The number of female registered with disabilities (at the end of the year or during the year) must be less than total number of registered as persons with disabilities (at the end of the year or during the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health/disability: number of registered as persons with disability </t>
+  </si>
+  <si>
+    <t>The test is failed if the number of registered as persons with disability at the end of the year is equal to the number of registered as persons with disabilities during the year. The test is run also for female and children (0-17 years) registered as persons with disabilities.</t>
+  </si>
+  <si>
+    <t>1201=1205, 1202=1206, 1203=1207, 1204=1208</t>
+  </si>
+  <si>
+    <t>The test verifies for each variable if the number has increased or decreased significantly compared to the previous year then the data warrant further investigation. The test fails when the figure of the current year (year T) reported for a single variable is significantly different from that reported for the previous year (year T-1). The test examines the percentage change in figure compared to the previous year and warns when the change is &gt;= +/- 30%. Note that for variables where the figure is zero or not significant in either year, significant changes are ignored. Failing a plausibility test does not necessarily imply an error in the data, but indicates areas which need to be checked and where additional metadata might be helpful.</t>
+  </si>
+  <si>
+    <t>A significant change does not necessarily indicate an error - for example in the case of collection of figures just starting or coming to an end or of changing priority then large changes may be expected. Significant changes between years can also occur for variables where there may be more pronounced fluctuations in the numbers of cases/children. However, large changes can also indicate errors in the data, e.g. due to typing errors (missing or extra digit), currency conversion errors, etc. All cases should therefore be checked. The error must be corrected (including any flag used at total or disaggregated level if necessary - for instance, the flag break in series "b") or explanations must be provided in "metadata/note".</t>
+  </si>
+  <si>
+    <t>Consistency on flags used between total and disaggregation: No flag "pa" for total while flag or missing data for disaggregation</t>
+  </si>
+  <si>
+    <t>The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total is equal to the sum of the disaggregation and the total is not flagged as partial "pa" while one or more disaggregation figures are missing and/or flag as partial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency on flags used between total and disaggregation: No flag for disaggregation while flag "pa" for total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total is equal to the sum of the disaggregation and is partial (flag "pa") while the disaggregation is fully provided (all disaggregation values are =&gt;0) but no disaggregation figure contains a flag partial ("pa"). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency on flags used between total and disaggregation: No flag for disaggregation while flag for total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total contains a flag ("p" or "e") while the disaggregation figures don't contain flags.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Child Protection: Total number of children</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formal alternative care,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by reasons for placement</t>
+    </r>
+  </si>
+  <si>
+    <t>The test is run for all variable for which the disaggregation by reasons for placement is requested (formal residential care, formal family-based care). The test checks if the sum of the detail reasons for placement is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more reasons for placement are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
+  </si>
+  <si>
+    <t>The test checks if the number of children who entered formal residential care from formal family based care arrangements is not equal to those who left formal family based care and placed in formal residential care during the year. The test is failed when the figures are different or missing (not available) for one of the variable.</t>
+  </si>
+  <si>
+    <t>The test checks if the number of children who left formal residential care and are placed (enter) in formal family based care arrangements is not equal to those who enter formal family based care from formal residential care during the year. The test is failed when the figures are different or missing (not available) for one of the variable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in all formal family-based care, at the end of the year" is equal or higher than "Total number of children in all formal family-based care (sum of foster care, kindship care and other forms), at the end of the year". The test is also carried out for sex and age disaggregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is run if the data on children in detention at the end of the year is equal to children detained during the year. The test checks if the stock and flow data are equal. The test is failed if the data are equal (stock equal to entrants). The test is also carried out for sex disaggregation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is run for each type of monthly allowance. The test checks if the number of families receiving a monthly allowance is equal or higher than the number of children receiving the same allowance. The error should be corrected. Any difference due to different data sources or due to partial data should be explained in the note. </t>
+  </si>
+  <si>
+    <t>17≠19+20, 40≠42+43, 63≠66+67, 68≠70+71, 98≠100+101, 121≠123+124, 151≠153+154, 174≠177+178, 180≠183+184, 204≠207+208, 228≠231+232, 252≠254+255, 275≠278+279, 280≠282+283, 310≠312+313, 333≠336+337, 357≠360+361, 381≠384+385, 405≠407+408, 435≠437+438, 458≠461+462, 463≠466+467, 495≠498+499, 527≠530+531, 560≠562+563, 583≠585+586, 606≠608+609, 629≠631+632, 654≠656+657, 684≠686+687, 714≠716+717, 744≠746+747, 775≠777+778, 787≠789+790, 799≠801+802, 811≠813+814, 823≠825+826, 835≠837+838, 854≠856+857, 874≠877+878, 903≠906+907, 936≠939+940, 969≠972+973, 1103≠1105+1106</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17≠SUM(22:39), </t>
     </r>
     <r>
       <rPr>
@@ -514,7 +2444,7 @@
   </si>
   <si>
     <r>
-      <t>68≠ SUM (92:97)</t>
+      <t>68≠ SUM (92:97),</t>
     </r>
     <r>
       <rPr>
@@ -549,1946 +2479,40 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Child Protection: Total number of children </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal alternative care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by reason for leaving</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is run for all variable for which the disaggregation by reasons for leaving is requested (formal residential care, formal family-based care including each type of formal family-based care). The test checks if the sum of the detail reasons for leaving is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more reasons for leaving are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used should be mentioned). Remind if there are no cases a zero should be reported (treat as real zero). Pay attention if the figure of the total is revised this can affect the other disaggregation for the same variable.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: All variable "access to justice" - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by category of offence</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is run for all variable for which the disaggregation by category of offence is requested. The test checks if the sum of the detail category of offence is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more category of offence are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>Education: Number of children with disabilities in education</t>
-  </si>
-  <si>
-    <t>The test checks if the sum of the detail type of school (ordinary and special) for children with disability in education is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of school is missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The test checks if the sum of the detail ISCED level for children with disability in education is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more category of ISCED level are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in formal residential care, at the end of the year" is equal or higher than "Total number of children in formal residential care, at the end of the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>40 ≥ 17, 42 ≥ 19, 43 ≥ 20, 45 ≥ 22, 62 ≥ 39</t>
-  </si>
-  <si>
-    <t>The children with disabilities in formal residential care including detail disaggregation, must be less than the total children in formal residential care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children in formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children in residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t>Child Protection: Total number of young people with disabilities</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities in formal residential care, at the end of the year" is equal or higher than "Total number of young people in formal residential care, at the end of the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
-    </r>
-  </si>
-  <si>
-    <t>The young people with disabilities in formal residential care, must be less than the total young people in formal residential care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people in formal residential care are young people with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered formal residential care, during the year" is equal or higher than "Total number of children who entered formal residential care, during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>98 ≥ 68, 100 ≥ 70, 101 ≥ 71, 103 ≥ 73, 120 ≥ 90</t>
-  </si>
-  <si>
-    <t>The children with disabilities who entered formal residential care including detail disaggregation, must be less than the total children who entered formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who entered formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who entered residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left formal residential care, during the year" is equal or higher than "Total number of children who left formal residential care, during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>151 ≥ 121, 153 ≥ 123, 154 ≥ 124, 156 ≥ 126, 173 ≥ 143</t>
-  </si>
-  <si>
-    <t>The children with disabilities who left formal residential care including detail disaggregation, must be less than the total children who left formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who left formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who left residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of young people with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities who left formal residential care, during the year" is equal or higher than "Total number of young people who left formal residential care, during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
-    </r>
-  </si>
-  <si>
-    <t>The young people with disabilities who left formal residential care, must be less than the total young people who left formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people who left formal residential care are young people with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <t>Child Protection: All variables (alternative care) for which stock and flows (entrants and exits) data are collected</t>
-  </si>
-  <si>
-    <t>The test is run for all variables related to alternative care for which stock and flow data are collected. The test checks if the stock and flow data are equal. The test is failed if the data are equal (stock equal to entrants and/or stock equal to exits and/or entrants equal to exits).</t>
-  </si>
-  <si>
-    <t>17=68, 40=98, 17=191, 40=151, 68=191, 98=151, 63=174, 180=333, 204=357, 228=381, 280=180+204+228, 252=310, 405=180+204+228, 252=435, 180=463, 204=495, 228=527, 275=458, 280=405, 333=463, 357=495, 381=527, 310=458</t>
-  </si>
-  <si>
-    <r>
-      <t>Child Protection: Total number of children</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> who entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> during the year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by reason for placement</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">By assumption, the number of children who entered formal residential care from a formal family based care (transferred from) should be equal to the number of children who left formal family based care and are placed (enter/transferred to) to formal residential care. Following this assumption, the same figure should be reported in both items. Any difference (as for instance different data source) should be specified in “metadata/note”. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal residential care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by reason for leaving</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">By assumption, the number of children who left formal residential care and placed in formal family-based care (enter/transferred to) should be equal to the number of children who enter formal family based care (transferred from) from formal residential care. Following this assumption, the same figure should be reported in both items. Any difference (as for instance different data source) should be specified in “metadata/note”. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Category "other"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for disaggregation by reason for placement, by reason of leaving and by category of offence</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The test is run for all variables for which a disaggregation which include the category "other" is collected. The test is failed when the category "other" of all relevant disaggregation is higher than 50% of the total. </t>
-  </si>
-  <si>
-    <t>category other &gt;50% of total, 97&gt;50% of 68, 150&gt;50% of 121, 309&gt;50% of 280, 434&gt;50% of 405, 494&gt;50% of 463, 526&gt;50% of 495, 558&gt;50% of 527, 683&gt;50% of 654, 713&gt;50% of 684, 743&gt;50% of 714, 773&gt;50% of 744, 853&gt;50% of 835, 872&gt;50% of 854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The category “other" should include those not classified elsewhere and theoretically the reported figure should represent a small part of the total. The category “other" should not refer to the difference between the total and the sum of the other categories if the figures of the other categories are not available or partial. Please provide any information on "metadata/note" if necessary. Remind the category "other" should be specified by the country in "metadata/note". </t>
-  </si>
-  <si>
-    <r>
-      <t>Child Protection: Total number of children with disabilities</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the individual type of formal family-based care (foster, kindship, other forms), </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) in the individual type of formal family-based care, at the end of the year" is equal or higher than "Total number of children in the individual type of formal family-based care, at the end of the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>181 ≥ 180, 205 ≥ 204, 229 ≥ 228</t>
-  </si>
-  <si>
-    <t>The children with disabilities in the individual type of formal family-based care (foster, kindship, other forms), must be less than the total children in the individual type of formal family-based care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children in the individual type of formal family-based care are children with disabilities. However the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <t>Child Protection: Total number of young people with disabilities in all formal family-based care, at the end of the year</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities in all formal family-based care, at the end of the year" is equal or higher than "Total number of young people in all formal family-based care, at the end of the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
-    </r>
-  </si>
-  <si>
-    <t>The young people with disabilities in all formal family-based care, must be less than the total young people in all formal family-based care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people in formal family-based care are young people with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in all formal family-based care, at the end of the year" is not equal to the sum  of "Total number of children with disabilities (of which with disabilities) in each type of formal family-based care (foster, kindship and other forms of family based care), at the end of the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure(s) are =&gt;0 and are not flag as partial for each type of family-based care.</t>
-    </r>
-  </si>
-  <si>
-    <t>The total number of children with disabilities in all formal family-based care at the end of the year must be equal to the sum of children with disabilities in each type of formal family-based care (foster, kindship and other forms of family based care), at the end of the year. The error must be corrected. Please provide any information on "metadata/note" if necessary.</t>
-  </si>
-  <si>
-    <t>The children with disabilities in all formal family-based care including detail disaggregation, must be less than the total children in all formal family-based care (never be bigger), et the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children in all formal family-based care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children in formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children who entered all formal family-based care, during the year" is equal or higher than the sum of "Total number of children who entered each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for all variables (each type of formal family-based care and for the total formal family-based care).</t>
-    </r>
-  </si>
-  <si>
-    <t>280 ≥ 333+357+381, 282 ≥ 336+360+384, 283 ≥ 337+361+385, 285 ≥ 339+363+387, 302 ≥ 356+380+404</t>
-  </si>
-  <si>
-    <t>The total number of children who entered the all formal family-based care including detail disaggregation, must be less than the sum of children who entered each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as new entrant at total level.  While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new entrants in kindship care in the reference year while is not counted as entrants at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be  provided in "metadata/note". Equal figures mean that there are no children transferred between type of family-based care during the year. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered all formal family-based care, during the year" is equal or higher than the sum  of "Total number of children with disabilities (of which with disabilities) who entered in each type of formal family-based care (foster, kindship and other forms of family based care), during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure(s) are =&gt;0 for each type of family-based care (children with disabilities).</t>
-    </r>
-  </si>
-  <si>
-    <t>The total number of children with disabilities who entered formal family-based care must be less than the sum of children with disabilities who entered each type of formal family-based care (foster, kindship and other forms of family based care), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as new entrant at total level.  While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new entrant in kindship care in the reference year while is not counted as entrant at total level of family-based care. The error must be corrected (including any flag if necessary) or explanations must be  provided in "metadata/note". Equal figures mean that there are no children with disabilities transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the individual type of formal family-based care - foster, kindship, other forms, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) who entered the individual type of formal family-based care (foster, kindship, other forms), during the year" is equal or higher than "Total number of children who entered the individual type of formal family-based care (foster, kindship, other forms), during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>334 ≥ 333, 358 ≥ 357, 382 ≥ 381</t>
-  </si>
-  <si>
-    <t>The children with disabilities who entered the individual type of formal family-based care (foster, kindship, other forms), must be less than the total children who entered the individual type of formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who entered the individual type of formal family-based care are children with disabilities. However the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who entered all formal family-based care, during the year" is equal or higher than "Total number of children who entered all formal family-based care, during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>310 ≥ 280, 312 ≥ 282, 313 ≥ 283, 315 ≥ 285, 332 ≥ 302</t>
-  </si>
-  <si>
-    <t>The children with disabilities who entered all formal family-based care including detail disaggregation, must be less than the total children who entered all formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who entered all formal family-based care are children with disabilities. Equal values can be correct for the disaggregation by age (all children who enter formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children who left all formal family-based care, during the year" is equal or higher than the sum of "Total number of children who left each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for all variables (for each type of formal family-based care and for the total formal family-based care).</t>
-    </r>
-  </si>
-  <si>
-    <t>405 ≥ 463+495+527, 407 ≥ 466+498+530, 408 ≥ 467+499+531, 410 ≥ 469+501+533, 427 ≥ 486+518+550</t>
-  </si>
-  <si>
-    <t>The total number of children who left all formal family-based care (including disaggregation) must be less than the sum of children who left each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as left from family-based care, as the children have not left the system during the year in question. While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new left of foster care in the reference year while is not counted as left at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that there are no children transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left all formal family-based care, during the year" is equal or higher than the sum of "Total number of children with disabilities (of which with disabilities) who left each type of formal family-based care (foster, kindship and other forms of family based care), during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure(s) are =&gt;0 for each type of family-based care (children with disabilities).</t>
-    </r>
-  </si>
-  <si>
-    <t>The total number of children with disabilities who left all formal family-based care must be less than the sum of children with disabilities who left each type of formal family-based care (never be bigger), during the year. Children who are transferred from one formal family-based care arrangement to another during a single year should not be counted as left from family-based care, as the children have not left the system during the year in question. While these transfers are counted within each type of family-based care. For instance, a child placed from a foster care to a kindship care during a single year is counted as one new left of foster care in the reference year while is not counted as left at total level of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that there are no children with disabilities transferred between each type of family-based care. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of young people with disabilities </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of young people with disabilities who left all formal family-based care, during the year" is equal or higher than "Total number of young people who left all formal family-based care, during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for young people with disabilities and for the total young people.</t>
-    </r>
-  </si>
-  <si>
-    <t>The young people with disabilities who left all formal family-based care, must be less than the total young people who left all formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all young people who left all formal family-based care are young people with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the individual type of formal family-based care - foster, kindship, other forms, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities (of which with disabilities) who left the individual type of formal family-based care, during the year" is equal or higher than "Total number of children who left the individual type of formal family-based care, during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>464 ≥ 463, 496 ≥ 495, 528 ≥ 527</t>
-  </si>
-  <si>
-    <t>The children with disabilities who left the individual type of formal family-based care, must be less than the total children who left the individual type of formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who left the individual type of formal family-based care are children with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who left all formal family-based care, during the year" is equal or higher than "Total number of children who left all formal family-based care, during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>The children with disabilities who left all formal family-based care including detail disaggregation, must be less than the total children who left all formal family-based care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who left all formal family-based care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who left formal family-based care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">during the year - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by reason for leaving</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the figure of the sum by reason for the total children who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all formal family-based care is different than the sum by reason for children who left each type of family-based care (excluding those transferred between type of family-based care). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of each reason is =&gt;0 for all variables and are not partial for each type of formal family-based care.</t>
-    </r>
-  </si>
-  <si>
-    <t>By assumption, the sum by reason of total children who left all formal family-based care must be equal to the sum of reason for all type of family-based care (foster, kindship and other forms) excluding the transfers to other type of family-based care. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the figure of each corresponding reason for leaving  is different between "Total number of children who left all formal family-based care, during the yea" and the sum of "Total number of children who left each type of formal family-based care (sum of foster care, kindship care and other forms), during the year". The test is carried out for the same "reason for leaving" (the test is not run for the reason "placed in other type of family-based care"). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 and not flag as partial.</t>
-    </r>
-  </si>
-  <si>
-    <t>429≠488+520+552, 430≠490+522+554, 431≠491+523+555, 432≠492+524+556, 433≠493+525+557, 434≠494+526+558</t>
-  </si>
-  <si>
-    <t>The figures of each reason for leaving must be equal between total number of children who left all formal family-based care and the sum of children who left each type of formal family-based care for the same reason. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities formally adopted - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Domestic -during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities formally adopted (domestic), during the year" is equal or higher than "Total number of children formally adopted (domestic), during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>583 ≥ 560, 585 ≥ 562, 586 ≥ 563, 588 ≥ 565, 605 ≥ 582</t>
-  </si>
-  <si>
-    <t>The children with disabilities formally adopted (domestic) during the year including detail disaggregation, must be less than the total children formally adopted (domestic), during the year (never be bigger). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures can be correct if all children formally adopted are all with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities formally adopted - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Intercountry - during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities formally adopted (intercountry), during the year" is equal or higher than "Total number of children formally adopted (intercountry), during the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the checked item is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>629 ≥ 606, 631 ≥ 608, 632 ≥ 609, 634 ≥ 611, 651 ≥ 628</t>
-  </si>
-  <si>
-    <t>The children with disabilities formally adopted (intercountry) during the year including detail disaggregation, must be less than the total children formally adopted (intercountry), during the year (never be bigger). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figure can be correct if all children formally adopted are all with disabilities. However the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children formally adopted - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children who left all alternative care (residential care + family-based care), during the year" because adopted is different than "Total number of children formally adopted (domestic + intercountry), during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note the test is run only if all figures are =&gt;0. </t>
-    </r>
-  </si>
-  <si>
-    <t>147+431≠560+606</t>
-  </si>
-  <si>
-    <t>By assumption, all children who left formal residential care and family-based care (all types) because adopted must be equal to the total number of children formally adopted (domestic + intercountry) during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of child victims of crime aged 0-17 registered by the police, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the "Total number of child victims of crime aged 0-17 registered by the police, during the year" is equal or less than "Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year". The test is also carried out for disaggregation by sex and category of offence (by age). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
-    </r>
-  </si>
-  <si>
-    <t>By assumption, the " Total number of child victims of crime aged 0-17 registered by the police, during the year" should be higher than the  " Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year" (never less). However, the total number of child victims of crime whose cases were tried during the reference year may include child victims of crime who were registered by the police in years prior to the reference year. That can affect the result of the test mainly that of the disaggregation by age. However, the data should be checked and confirmed. Equal values can be correct if all cases of crime against children registered by the police during the reference year are all tried in court during the same reference year. However, the data should be checked and confirmed since this case is generally not expected. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of child victims of crime aged 0-17 whose cases were tried in court, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the "Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year" is equal or less than "Total number of child victims of crime aged 0-17 whose cases resulted in a final conviction, during the year". The test is also carried out for disaggregation by sex and category of offence (by age). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
-    </r>
-  </si>
-  <si>
-    <t>By assumption, the " Total number of child victims of crime aged 0-17 whose cases were tried in court, during the year " should be higher than the  " Total number of child victims of crime aged 0-17 whose cases resulted in a final conviction, during the year". However the total number of child victims of crime whose cases resulted in a final criminal conviction during the reference year may include cases in which the trial started a year or more years ago before it resulted in a criminal conviction during the reference year. This can affect the data reported. This can affect the result of the test mainly that of the disaggregation by age. However, the data should be checked and confirmed. Equal values can be correct if all cases tried in court during the reference year are all resulted in a final conviction during the same reference year. However, the data should be checked and confirmed since this case is generally not expected. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Detention </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <t>775=799, 787=811</t>
-  </si>
-  <si>
-    <r>
-      <t>Child Protection: Total number of children sentenced to custodial sentences,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the "Total number of children sentenced to custodial sentences, during the year" is higher than "Total number of children detained (pre-trial + post-trial), during the year ". The test is also carried out for disaggregation by sex. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
-    </r>
-  </si>
-  <si>
-    <t>The "Total number of children sentenced to custodial sentences, during the year" should be equal or less than Total number of children detained (pre-trial + post-trial), during the year ". However the Total number of children sentenced to custodial sentences during the reference year may include children who entered detention in years prior to the reference year. This can affect the result of the test.  However, the data should be checked and confirmed. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when the "Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year" is equal or higher than "Total number of children aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the checked item is =&gt;0 for both variable.</t>
-    </r>
-  </si>
-  <si>
-    <t>The Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year must be less than the total number of children aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, during the year. Equal values mean that all children who brought or on whose behalf a complaint was brought by an adult are children with disabilities. However, the data should be checked and confirmed since that case seems an exception. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Total number of children with disabilities aged 0-17 who brought or on whose behalf a complaint was brought by an adult to independent human rights mechanisms, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">during the year - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by type of complaint</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is failed when the sum of type of complaint is not equal to the total (&lt; or &gt; of total). If one or more type of complaint are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>Child Protection: Violence against children with disabilities</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities who experience violence, during the year" is equal or higher than "Total number of children who experience violence, during the year". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the value of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t>904 ≥ 903, 937 ≥ 936, 970 ≥ 969</t>
-  </si>
-  <si>
-    <t>The children with disabilities who experience violence, must be less than the total children who experience violence (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures mean that all children who experience violence are children with disabilities. However, the data should be checked and confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Violence against children - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by category of violence</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is failed when the sum of category of violence is not equal to the total (&lt; or &gt; of total). If one or more category of violence are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>903≠ SUM (928:930), 936≠ SUM (961:963), 969≠ SUM (994:996)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Child Protection: Violence against children - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by relation with perpetrator</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is failed when the sum by relation with perpetrator is not equal to the total (&lt; or &gt; of total). If one or more detail are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>903≠ SUM (932:935), 936≠ SUM (965:968), 969≠ SUM (998:1001)</t>
-  </si>
-  <si>
-    <t>Social Protection: All variable for which a disaggregation by type of scheme is collected</t>
-  </si>
-  <si>
-    <t>The test is run for all variable for which the disaggregation by type of schemes (contributory non-contributory schemes) is requested (Total social protection expenditure, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). The test checks if the sum by type of social scheme (contributory + non-contributory) is equal to the total of the variable. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of scheme is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>1011≠ 1013+1014, 1029≠ 1031+1032, 1033≠ 1035+1036, 1037≠ 1039+1040, 1041≠ 1043+1044, 1045≠ 1047+1048, 1050≠ 1052+1053</t>
-  </si>
-  <si>
-    <t>The sum of expenditure by type of schemes (contributory and non-contributory) should be equal to the total expenditure (this is valid also of the detail cash benefits of family/children function). The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used should be mentioned). Remind, the total expenditure including each disaggregation, should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Social protection expenditure by type of social benefits</t>
-  </si>
-  <si>
-    <t>The test checks if the sum by type of social benefits (cash + kind) is equal to the total of the social benefits expenditure. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of social benefit is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The sum of benefits in cash and in kind must be equal to the total expenditure. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind, the total expenditure including each disaggregation, should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Social protection expenditure by social protection functions</t>
-  </si>
-  <si>
-    <t>The test checks if the sum by functions is equal to the total social protection benefits expenditure. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one type of the function is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The sum of the expenditure of the all functions must be equal to the total expenditure. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind, the total expenditure and by detail functions should exclude the administration costs related to the scheme which manage the provision of the social benefits and its financing. Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Social protection means-tested benefits</t>
-  </si>
-  <si>
-    <t>The test is run for all variable for which the disaggregation by means-tested is requested (Total social protection expenditure, total cash benefits, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). The test is failed when the means-tested social benefits expenditure are equal or higher than the total social protection benefits expenditure (Total social protection expenditure, total cash benefits, Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits (family), Cash benefits to children with disability). If the means-tested social benefits is not available and/or flag as partial "pa" and the value is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>1012 ≥ 1011, 1016 ≥ 1015, 1030 ≥ 1029, 1034 ≥ 1033, 1038 ≥ 1037, 1042 ≥ 1041, 1046 ≥ 1045, 1051 ≥ 1050</t>
-  </si>
-  <si>
-    <t>The expenditure of means tested benefits must be less than he total expenditure (not be bigger). This is valid also for the detail cash benefits of family/children function. Equal figure means that the total refers only to means-tested benefits (there are no non means-tested benefits). This can be correct mainly for detail family/children cash benefits. However, the data should be checked and confirmed. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Family/children social benefits</t>
-  </si>
-  <si>
-    <t>The test checks if the sum of total family/children social cash benefits (Family allowances, Income maintenance during maternity, Parental leave, Birth grant, Other cash benefits) and those in kind (child day care, accommodation, home help, other benefits in kind) is equal to the total family/children function. The test is failed when the sum is different to the total (&lt; or &gt; of total). However, if one detail family/children social benefit is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Income support</t>
-  </si>
-  <si>
-    <t>The test is failed when the income support benefit is higher than the total social exclusion function. However, if one of each variable is not available the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The income support expenditure is by definition part of the social exclusion function, so they can never be bigger. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (for instance a different data source used or if the total expenditure includes also administration costs should be mentioned). Remind if there are no expenditure for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>Social Protection: Benefit recipients of family support</t>
-  </si>
-  <si>
-    <t>The test is failed when the sum of beneficiaries/recipients (children/families) of detail type of monthly family allowances (means-tested family allowances, single parent family allowances, other child allowances) is equal or less than the total. However, if one detail type of allowance is missing (not available) and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used). The test is run separately for children and for families.</t>
-  </si>
-  <si>
-    <t>SUM (1066:1068)≤1065, SUM (1071:1073)≤1070</t>
-  </si>
-  <si>
-    <t>Total number of children/families receiving monthly family allowances are defined as recipients of one or more of type of allowances falling within three categories (means-tested monthly family allowances, specific allowance for single-parent family other child allowances). In general, the number of allowances received by children/families differs from the number of children/families as a child/family might receive more than one allowance. Double counting is to be avoided between the different categories of family allowances. Accordingly, the total number of children/families receiving monthly family allowances should be less than the sum. Equal values imply that the recipients receive only one type of allowance. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (as the data refer to the number of allowances instead children or families recipient of the allowance - no double counting avoided or existed). Remind if there are no cases for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>1070≥1065, 1071≥1066, 1072≥1067, 1073≥1068, 1074≥1069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family should be intended here as a household (including individual/single parent) with one or more dependent children. Generally, a monthly family/child allowance is provided to a family with one or more dependent children. By consequent the number of families receiving a family/child allowance should be less than the number of children. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note") Remind if there are no cases for a specific item, a zero should be reported (treat as real zero). </t>
-  </si>
-  <si>
-    <t>Social Protection: Benefit recipients of pensions</t>
-  </si>
-  <si>
-    <t>The test is failed when the sum of beneficiaries/recipients of detail type/category of pension (old age, disability, survivors, early retirement veteran merit and other) is equal or less than the total. However, if one detail type of recipient of pension is not available and/or flag as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>Pension recipients (beneficiaries) are defined as recipients of one or more of type of pensions falling within five pension categories (old age pension, disability pension, survivors' pension early retirement pension and veteran, merit and other pensions). In general, the number of pensions received by pensioners differs from the number of pensioners as many pensioners might receive more than one pension. Double counting is to be avoided between the different categories of pensions. Accordingly, the total number of pension recipients should be equal or less than the sum of the five categories. Equal values imply that the recipients receive only one type of pension. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note" (as the data refer to the number of pensions instead pensioners - no doble counting avoided or existed). Remind if there are no cases for a specific item, a zero should be reported (treat as real zero).</t>
-  </si>
-  <si>
-    <t>The number of children receiving pension for disability must be less than the total number of disability pensioners. The error must be corrected, or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <t>The number of children receiving orphans’ pensions must be less than the total number of survivors’ pensioners. The error must be corrected or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Health/disability: disabled persons </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at the end of the year</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is failed when the number of children registered with disabilities (0-17 years) at the end of the year is equal or higher than total number of registered as persons with disabilities (at the end of the year). The test is also run for Number of girls (0-17 years) registered as persons with disabilities (at the end of the year).</t>
-  </si>
-  <si>
-    <t>1202≥1201, 1204≥1203</t>
-  </si>
-  <si>
-    <t>The number of children registered with disabilities at the end of the year must be less than total number of registered as persons with disabilities (at the end of the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Health/disability: disabled persons </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>during the year</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is failed when the number of children registered with disabilities (0-17 years) during the year is equal or higher than total number of registered as persons with disabilities during the year. The test is also run for Number of girls (0-17 years) registered as persons with disabilities (during the year).</t>
-  </si>
-  <si>
-    <t>1206≥1205, 1208≥1207</t>
-  </si>
-  <si>
-    <t>The number of children registered with disabilities during the year must be less than total number of registered as persons with disabilities (during the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <t>Health/disability: female with disabilities</t>
-  </si>
-  <si>
-    <t>1203≥1201, 1207≥1205</t>
-  </si>
-  <si>
-    <t>The number of female registered with disabilities (at the end of the year or during the year) must be less than total number of registered as persons with disabilities (at the end of the year or during the year). The error must be corrected or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health/disability: number of registered as persons with disability </t>
-  </si>
-  <si>
-    <t>The test is failed if the number of registered as persons with disability at the end of the year is equal to the number of registered as persons with disabilities during the year. The test is run also for female and children (0-17 years) registered as persons with disabilities.</t>
-  </si>
-  <si>
-    <t>1201=1205, 1202=1206, 1203=1207, 1204=1208</t>
-  </si>
-  <si>
-    <t>The test verifies for each variable if the number has increased or decreased significantly compared to the previous year then the data warrant further investigation. The test fails when the figure of the current year (year T) reported for a single variable is significantly different from that reported for the previous year (year T-1). The test examines the percentage change in figure compared to the previous year and warns when the change is &gt;= +/- 30%. Note that for variables where the figure is zero or not significant in either year, significant changes are ignored. Failing a plausibility test does not necessarily imply an error in the data, but indicates areas which need to be checked and where additional metadata might be helpful.</t>
-  </si>
-  <si>
-    <t>A significant change does not necessarily indicate an error - for example in the case of collection of figures just starting or coming to an end or of changing priority then large changes may be expected. Significant changes between years can also occur for variables where there may be more pronounced fluctuations in the numbers of cases/children. However, large changes can also indicate errors in the data, e.g. due to typing errors (missing or extra digit), currency conversion errors, etc. All cases should therefore be checked. The error must be corrected (including any flag used at total or disaggregated level if necessary - for instance, the flag break in series "b") or explanations must be provided in "metadata/note".</t>
-  </si>
-  <si>
-    <t>Consistency on flags used between total and disaggregation: No flag "pa" for total while flag or missing data for disaggregation</t>
-  </si>
-  <si>
-    <t>The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total is equal to the sum of the disaggregation and the total is not flagged as partial "pa" while one or more disaggregation figures are missing and/or flag as partial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency on flags used between total and disaggregation: No flag for disaggregation while flag "pa" for total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total is equal to the sum of the disaggregation and is partial (flag "pa") while the disaggregation is fully provided (all disaggregation values are =&gt;0) but no disaggregation figure contains a flag partial ("pa"). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency on flags used between total and disaggregation: No flag for disaggregation while flag for total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test is run for all variable for which a specific disaggregation is requested. The test is failed when the total contains a flag ("p" or "e") while the disaggregation figures don't contain flags.  </t>
-  </si>
-  <si>
-    <r>
-      <t>Child Protection: Total number of children</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> who entered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formal alternative care,</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> during the year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by reasons for placement</t>
-    </r>
-  </si>
-  <si>
-    <t>The test is run for all variable for which the disaggregation by reasons for placement is requested (formal residential care, formal family-based care). The test checks if the sum of the detail reasons for placement is equal to the total. The test is failed when the sum is different to the total (&lt; or &gt; of total). If one or more reasons for placement are missing (not available) and/or flagged as partial "pa" and the sum is less than the total the test is not failed (Other tests alert on the eventual missing value or flag to be used).</t>
-  </si>
-  <si>
-    <t>The test checks if the number of children who entered formal residential care from formal family based care arrangements is not equal to those who left formal family based care and placed in formal residential care during the year. The test is failed when the figures are different or missing (not available) for one of the variable.</t>
-  </si>
-  <si>
-    <t>The test checks if the number of children who left formal residential care and are placed (enter) in formal family based care arrangements is not equal to those who enter formal family based care from formal residential care during the year. The test is failed when the figures are different or missing (not available) for one of the variable.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The test is failed when "Total number of children with disabilities in all formal family-based care, at the end of the year" is equal or higher than "Total number of children in all formal family-based care (sum of foster care, kindship care and other forms), at the end of the year". The test is also carried out for sex and age disaggregation. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note the test is run only if the figure of the item checked is =&gt;0 for children with disabilities and for the total children.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The test is run if the data on children in detention at the end of the year is equal to children detained during the year. The test checks if the stock and flow data are equal. The test is failed if the data are equal (stock equal to entrants). The test is also carried out for sex disaggregation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test is run for each type of monthly allowance. The test checks if the number of families receiving a monthly allowance is equal or higher than the number of children receiving the same allowance. The error should be corrected. Any difference due to different data sources or due to partial data should be explained in the note. </t>
-  </si>
-  <si>
-    <t>17≠19+20, 40≠42+43, 63≠66+67, 68≠70+71, 98≠100+101, 121≠123+124, 151≠153+154, 174≠177+178, 180≠183+184, 204≠207+208, 228≠231+232, 252≠254+255, 275≠278+279, 280≠282+283, 310≠312+313, 333≠336+337, 357≠360+361, 381≠384+385, 405≠407+408, 435≠437+438, 458≠461+462, 463≠466+467, 495≠498+499, 527≠530+531, 560≠562+563, 583≠585+586, 606≠608+609, 629≠631+632, 654≠656+657, 684≠686+687, 714≠716+717, 744≠746+747, 775≠777+778, 787≠789+790, 799≠801+802, 811≠813+814, 823≠825+826, 835≠837+838, 854≠856+857, 874≠877+878, 903≠906+907, 936≠939+940, 969≠972+973, 1103≠1105+1106</t>
+      <t xml:space="preserve">121≠ SUM (145:150), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To complete once the form is finalized </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">654≠ SUM (678:683), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To complete once the form is finalized </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2538,6 +2562,13 @@
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2951,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97507B5-E78C-4E50-B2D8-762FA62149D9}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2977,10 +3008,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="347" thickBot="1" x14ac:dyDescent="0.4">
@@ -3006,7 +3037,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="189.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3032,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="179" thickBot="1" x14ac:dyDescent="0.4">
@@ -3058,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="158" thickBot="1" x14ac:dyDescent="0.4">
@@ -3084,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="137" thickBot="1" x14ac:dyDescent="0.4">
@@ -3110,7 +3141,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="263" thickBot="1" x14ac:dyDescent="0.4">
@@ -3127,16 +3158,16 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="284" thickBot="1" x14ac:dyDescent="0.4">
@@ -3153,16 +3184,16 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="273.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3179,16 +3210,16 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3208,13 +3239,13 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -3234,13 +3265,13 @@
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="357.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3254,19 +3285,19 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="399.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3280,22 +3311,22 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="315.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3306,19 +3337,19 @@
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -3332,19 +3363,19 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -3358,19 +3389,19 @@
         <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3384,19 +3415,19 @@
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3410,19 +3441,19 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3436,19 +3467,19 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3462,19 +3493,19 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3488,19 +3519,19 @@
         <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="210.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3514,19 +3545,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
@@ -3540,19 +3571,19 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="336.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3566,22 +3597,22 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="336.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3592,19 +3623,19 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3618,19 +3649,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3644,19 +3675,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
@@ -3670,19 +3701,19 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3696,19 +3727,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3722,19 +3753,19 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3748,19 +3779,19 @@
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3774,19 +3805,19 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3800,19 +3831,19 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3826,19 +3857,19 @@
         <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3852,19 +3883,19 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="389" thickBot="1" x14ac:dyDescent="0.4">
@@ -3878,19 +3909,19 @@
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="399.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3904,19 +3935,19 @@
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3930,22 +3961,22 @@
         <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="315.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="294.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3956,19 +3987,19 @@
         <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3982,22 +4013,22 @@
         <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4008,22 +4039,22 @@
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4034,22 +4065,22 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="273.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="263" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4060,19 +4091,19 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4086,19 +4117,19 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4112,19 +4143,19 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="221" thickBot="1" x14ac:dyDescent="0.4">
@@ -4138,19 +4169,19 @@
         <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4164,19 +4195,19 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4190,19 +4221,19 @@
         <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -4216,19 +4247,19 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="336.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4242,19 +4273,19 @@
         <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -4268,19 +4299,19 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -4294,19 +4325,19 @@
         <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4320,19 +4351,19 @@
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4346,19 +4377,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4372,19 +4403,19 @@
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4398,19 +4429,19 @@
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4424,19 +4455,19 @@
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4450,19 +4481,19 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4476,19 +4507,19 @@
         <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4502,19 +4533,19 @@
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4528,22 +4559,22 @@
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="168.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="158" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4554,22 +4585,22 @@
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="168.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="158" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4580,22 +4611,22 @@
         <v>25</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="252.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:8" ht="242" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4606,22 +4637,22 @@
         <v>25</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="221" thickBot="1" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="210.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4632,22 +4663,22 @@
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="231.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="221" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4658,19 +4689,19 @@
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="200" thickBot="1" x14ac:dyDescent="0.4">
@@ -4684,19 +4715,19 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4704,25 +4735,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4738,6 +4769,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -4909,15 +4949,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F47DB44-C32C-4103-9CBE-22C0BABC3FC8}">
   <ds:schemaRefs>
@@ -4935,6 +4966,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BB486-D9C7-4C42-8994-FF856AC7670C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD4EBFD-F216-4EB0-8C7B-659015741667}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4950,12 +4989,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BB486-D9C7-4C42-8994-FF856AC7670C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tmee/validation/validation_rules.xlsx
+++ b/tmee/validation/validation_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beto\OneDrive\UNICEF\TransMonEE\data-etl\tmee\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{AA5BFD42-E259-4EC6-9D97-4231E348D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64183539-2027-4C0E-A875-E02C31753F36}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{AA5BFD42-E259-4EC6-9D97-4231E348D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23FD9772-4D64-4451-85C6-16387B22958F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{94D69724-E89C-40A6-AA5E-C46142B6A58D}"/>
   </bookViews>
@@ -638,9 +638,6 @@
     </r>
   </si>
   <si>
-    <t>40 ≥ 17, 42 ≥ 19, 43 ≥ 20, 45 ≥ 22, 62 ≥ 39</t>
-  </si>
-  <si>
     <t>The children with disabilities in formal residential care including detail disaggregation, must be less than the total children in formal residential care (never be bigger), at the end of the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children in formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children in residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
   </si>
   <si>
@@ -753,9 +750,6 @@
     </r>
   </si>
   <si>
-    <t>98 ≥ 68, 100 ≥ 70, 101 ≥ 71, 103 ≥ 73, 120 ≥ 90</t>
-  </si>
-  <si>
     <t>The children with disabilities who entered formal residential care including detail disaggregation, must be less than the total children who entered formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who entered formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who entered residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
   </si>
   <si>
@@ -812,9 +806,6 @@
     </r>
   </si>
   <si>
-    <t>151 ≥ 121, 153 ≥ 123, 154 ≥ 124, 156 ≥ 126, 173 ≥ 143</t>
-  </si>
-  <si>
     <t>The children with disabilities who left formal residential care including detail disaggregation, must be less than the total children who left formal residential care (never be bigger), during the year. The error must be corrected (including any flag used at total or disaggregated level if necessary) or explanations must be provided in "metadata/note". Equal figures means that all children who left formal residential care are children with disabilities. Equal figures can be correct for the disaggregation by age (all children who left residential care of that age are children with disabilities). However, the data should be checked and confirmed.</t>
   </si>
   <si>
@@ -880,9 +871,6 @@
     <t>The test is run for all variables related to alternative care for which stock and flow data are collected. The test checks if the stock and flow data are equal. The test is failed if the data are equal (stock equal to entrants and/or stock equal to exits and/or entrants equal to exits).</t>
   </si>
   <si>
-    <t>17=68, 40=98, 17=191, 40=151, 68=191, 98=151, 63=174, 180=333, 204=357, 228=381, 280=180+204+228, 252=310, 405=180+204+228, 252=435, 180=463, 204=495, 228=527, 275=458, 280=405, 333=463, 357=495, 381=527, 310=458</t>
-  </si>
-  <si>
     <r>
       <t>Child Protection: Total number of children</t>
     </r>
@@ -1044,9 +1032,6 @@
   </si>
   <si>
     <t xml:space="preserve">The test is run for all variables for which a disaggregation which include the category "other" is collected. The test is failed when the category "other" of all relevant disaggregation is higher than 50% of the total. </t>
-  </si>
-  <si>
-    <t>category other &gt;50% of total, 97&gt;50% of 68, 150&gt;50% of 121, 309&gt;50% of 280, 434&gt;50% of 405, 494&gt;50% of 463, 526&gt;50% of 495, 558&gt;50% of 527, 683&gt;50% of 654, 713&gt;50% of 684, 743&gt;50% of 714, 773&gt;50% of 744, 853&gt;50% of 835, 872&gt;50% of 854</t>
   </si>
   <si>
     <t xml:space="preserve">The category “other" should include those not classified elsewhere and theoretically the reported figure should represent a small part of the total. The category “other" should not refer to the difference between the total and the sum of the other categories if the figures of the other categories are not available or partial. Please provide any information on "metadata/note" if necessary. Remind the category "other" should be specified by the country in "metadata/note". </t>
@@ -2506,6 +2491,21 @@
       </rPr>
       <t xml:space="preserve">To complete once the form is finalized </t>
     </r>
+  </si>
+  <si>
+    <t>40 ≥ 17, (42:43) ≥ (19:20), (45:62) ≥ (22:39)</t>
+  </si>
+  <si>
+    <t>98 ≥ 68, (100:101) ≥ (70:71), (103:120) ≥ (73:90)</t>
+  </si>
+  <si>
+    <t>151 ≥ 121, (153:154) ≥ (123:124), (156:173) ≥ (126:143)</t>
+  </si>
+  <si>
+    <t>17=68, 40=98, 17=121, 40=151, 68=121, 98=151, 63=174, 180=333, 204=357, 228=381, 280=180+204+228, 252=310, 405=180+204+228, 252=435, 180=463, 204=495, 228=527, 275=458, 280=405, 333=463, 357=495, 381=527</t>
+  </si>
+  <si>
+    <t>97&gt;50% of 68, 150&gt;50% of 121, 309&gt;50% of 280, 434&gt;50% of 405, 494&gt;50% of 463, 526&gt;50% of 495, 558&gt;50% of 527, 683&gt;50% of 654, 713&gt;50% of 684, 743&gt;50% of 714, 773&gt;50% of 744, 853&gt;50% of 835, 872&gt;50% of 854</t>
   </si>
 </sst>
 </file>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97507B5-E78C-4E50-B2D8-762FA62149D9}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3158,10 +3158,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -3184,10 +3184,10 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>28</v>
@@ -3210,10 +3210,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
@@ -3242,7 +3242,7 @@
         <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>135</v>
@@ -3268,7 +3268,7 @@
         <v>136</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>135</v>
@@ -3285,16 +3285,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>135</v>
@@ -3320,7 +3320,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>139</v>
@@ -3346,7 +3346,7 @@
         <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>139</v>
@@ -3424,10 +3424,10 @@
         <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3441,19 +3441,19 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3467,19 +3467,19 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3493,19 +3493,19 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3519,22 +3519,22 @@
         <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="210.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="200" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3545,16 +3545,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>49</v>
@@ -3571,19 +3571,19 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="336.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3597,19 +3597,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
@@ -3623,19 +3623,19 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3649,19 +3649,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -3675,19 +3675,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="326" thickBot="1" x14ac:dyDescent="0.4">
@@ -3701,19 +3701,19 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3727,19 +3727,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3753,19 +3753,19 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3779,19 +3779,19 @@
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3805,19 +3805,19 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3831,19 +3831,19 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3857,19 +3857,19 @@
         <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3883,19 +3883,19 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="389" thickBot="1" x14ac:dyDescent="0.4">
@@ -3909,19 +3909,19 @@
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="399.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3935,19 +3935,19 @@
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -3961,19 +3961,19 @@
         <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="294.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3987,19 +3987,19 @@
         <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4013,19 +4013,19 @@
         <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -4039,19 +4039,19 @@
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="368" thickBot="1" x14ac:dyDescent="0.4">
@@ -4065,19 +4065,19 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="263" thickBot="1" x14ac:dyDescent="0.4">
@@ -4091,19 +4091,19 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4117,19 +4117,19 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4143,22 +4143,22 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="221" thickBot="1" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="210.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4169,16 +4169,16 @@
         <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>85</v>
@@ -4195,19 +4195,19 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4221,19 +4221,19 @@
         <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -4247,13 +4247,13 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>91</v>
@@ -4273,19 +4273,19 @@
         <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="305" thickBot="1" x14ac:dyDescent="0.4">
@@ -4299,16 +4299,16 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>139</v>
@@ -4325,16 +4325,16 @@
         <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>139</v>
@@ -4351,19 +4351,19 @@
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4377,19 +4377,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4403,19 +4403,19 @@
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4429,19 +4429,19 @@
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4455,19 +4455,19 @@
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="378.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4481,19 +4481,19 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4507,19 +4507,19 @@
         <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4533,19 +4533,19 @@
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -4559,19 +4559,19 @@
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="158" thickBot="1" x14ac:dyDescent="0.4">
@@ -4585,7 +4585,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>109</v>
@@ -4597,7 +4597,7 @@
         <v>111</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="158" thickBot="1" x14ac:dyDescent="0.4">
@@ -4611,7 +4611,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>112</v>
@@ -4623,7 +4623,7 @@
         <v>114</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="242" thickBot="1" x14ac:dyDescent="0.4">
@@ -4637,19 +4637,19 @@
         <v>25</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="210.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4663,19 +4663,19 @@
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="221" thickBot="1" x14ac:dyDescent="0.4">
@@ -4689,7 +4689,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>117</v>
@@ -4698,10 +4698,10 @@
         <v>118</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="200" thickBot="1" x14ac:dyDescent="0.4">
@@ -4715,16 +4715,16 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>49</v>
@@ -4747,13 +4747,13 @@
         <v>122</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4769,15 +4769,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -4949,6 +4940,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F47DB44-C32C-4103-9CBE-22C0BABC3FC8}">
   <ds:schemaRefs>
@@ -4966,14 +4966,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BB486-D9C7-4C42-8994-FF856AC7670C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD4EBFD-F216-4EB0-8C7B-659015741667}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4989,4 +4981,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306BB486-D9C7-4C42-8994-FF856AC7670C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>